--- a/Deliverable 6/Test Data/Cheng Luo - Test Data.xlsx
+++ b/Deliverable 6/Test Data/Cheng Luo - Test Data.xlsx
@@ -1,20 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edward\Documents\GitHub\Pizza\Deliverable 6\Test Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11980" windowHeight="3290"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11985" windowHeight="3285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$G$8</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +21,95 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Use Case</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>Happy Path</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Sad Path</t>
+  </si>
+  <si>
+    <t>Get Provider directory</t>
+  </si>
+  <si>
+    <t>Get member service report for a member</t>
+  </si>
+  <si>
+    <t>Get Account payable report</t>
+  </si>
+  <si>
+    <t>Get provider info</t>
+  </si>
+  <si>
+    <t>Authenticate member ID</t>
+  </si>
+  <si>
+    <t>Cheng Luo</t>
+  </si>
+  <si>
+    <t>Show service table</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click "get all services" button </t>
+  </si>
+  <si>
+    <t>show member report</t>
+  </si>
+  <si>
+    <t>11111 / empty</t>
+  </si>
+  <si>
+    <t>Member is null / no result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click "Get PayableReport" button </t>
+  </si>
+  <si>
+    <t>show account payable report</t>
+  </si>
+  <si>
+    <t>Show provider information</t>
+  </si>
+  <si>
+    <t>empty / 11111</t>
+  </si>
+  <si>
+    <t>error message</t>
+  </si>
+  <si>
+    <t>1001 / 1006 / 1008</t>
+  </si>
+  <si>
+    <t>vaild / suspended / invaild</t>
+  </si>
+  <si>
+    <t>error message / member not found</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,13 +117,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -54,11 +164,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -328,7 +463,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -336,12 +471,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" style="5"/>
+    <col min="2" max="2" width="46.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="6" width="26.140625" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A1" s="4"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="9">
+        <v>100</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.45" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <autoFilter ref="A2:G8"/>
+  <mergeCells count="2">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Deliverable 6/Test Data/Cheng Luo - Test Data.xlsx
+++ b/Deliverable 6/Test Data/Cheng Luo - Test Data.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mo\Documents\GitHub\Pizza\Deliverable 6\Test Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11985" windowHeight="3285"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="11990" windowHeight="3290"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -179,21 +184,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -463,7 +468,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -471,36 +476,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="5"/>
-    <col min="2" max="2" width="46.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="5"/>
+    <col min="2" max="2" width="46.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="6" width="26.140625" customWidth="1"/>
-    <col min="7" max="7" width="26.28515625" customWidth="1"/>
+    <col min="5" max="6" width="26.1796875" customWidth="1"/>
+    <col min="7" max="7" width="26.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="7" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="7"/>
+      <c r="G1" s="9"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -523,7 +528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -533,20 +538,20 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -556,20 +561,20 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>1000</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -579,20 +584,20 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -602,20 +607,20 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <v>100</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -625,20 +630,19 @@
       <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E7" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.45" x14ac:dyDescent="0.35"/>
   </sheetData>
   <autoFilter ref="A2:G8"/>
   <mergeCells count="2">
